--- a/tut05/output/0401CS24.xlsx
+++ b/tut05/output/0401CS24.xlsx
@@ -553,22 +553,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>9.204545454545455</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>9.325581395348838</v>
+        <v>9.33</v>
       </c>
       <c r="E6" t="n">
-        <v>9.404255319148936</v>
+        <v>9.4</v>
       </c>
       <c r="F6" t="n">
-        <v>9.428571428571429</v>
+        <v>9.43</v>
       </c>
       <c r="G6" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>9.853658536585366</v>
+        <v>9.85</v>
       </c>
       <c r="I6" t="n">
         <v>9.550000000000001</v>
@@ -615,25 +615,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>9.096774193548388</v>
+        <v>9.1</v>
       </c>
       <c r="D8" t="n">
-        <v>9.169117647058824</v>
+        <v>9.17</v>
       </c>
       <c r="E8" t="n">
-        <v>9.229508196721312</v>
+        <v>9.23</v>
       </c>
       <c r="F8" t="n">
-        <v>9.266666666666667</v>
+        <v>9.27</v>
       </c>
       <c r="G8" t="n">
-        <v>9.332075471698113</v>
+        <v>9.33</v>
       </c>
       <c r="H8" t="n">
-        <v>9.401960784313726</v>
+        <v>9.4</v>
       </c>
       <c r="I8" t="n">
-        <v>9.419075144508671</v>
+        <v>9.42</v>
       </c>
     </row>
   </sheetData>
